--- a/data/elm_spring_2022/solutions/states.xlsx
+++ b/data/elm_spring_2022/solutions/states.xlsx
@@ -540,22 +540,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -799,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>

--- a/data/elm_spring_2022/solutions/states.xlsx
+++ b/data/elm_spring_2022/solutions/states.xlsx
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -540,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
@@ -555,10 +555,10 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -762,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
@@ -836,16 +836,16 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
